--- a/data/Timkiemdata.xlsx
+++ b/data/Timkiemdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DoAn4\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DoAn4_PhamVanLam\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5A2231-9EB0-4585-87D4-B7EE9443C529}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E45E284-3FCB-43EA-B171-5A7D74047DAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Đăng nhập" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Case</t>
   </si>
@@ -181,9 +181,6 @@
     <t>Nghệ An</t>
   </si>
   <si>
-    <t>Cập nhật thành công</t>
-  </si>
-  <si>
     <t>Thành công</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>lam2004gmail.com</t>
+  </si>
+  <si>
+    <t>Áo sơ mi</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   </sheetPr>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -636,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -650,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -848,90 +848,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D99859-A5E0-43A2-8A5C-E71CBC827C8F}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="60.21875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="34.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
+      <c r="B3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +944,7 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1014,7 +964,7 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1025,16 +975,16 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1048,13 +998,13 @@
         <v>44</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
